--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_5.xlsx
@@ -518,221 +518,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_0</t>
+          <t>model_22_5_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9878248021870122</v>
+        <v>0.9574737586559033</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8352595609613029</v>
+        <v>0.7717030286640079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8924398929156991</v>
+        <v>-5.690218830008952</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999563831612897</v>
+        <v>0.9964073681576034</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9866876598157497</v>
+        <v>0.9396771470324808</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08141560383708039</v>
+        <v>0.2843731716833104</v>
       </c>
       <c r="H2" t="n">
-        <v>1.101620074411739</v>
+        <v>1.526622898534673</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1617380578869708</v>
+        <v>0.7350994770631171</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004657021504628978</v>
+        <v>0.04605665041736573</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08110188001871683</v>
+        <v>0.390577919907133</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5608136376620082</v>
+        <v>1.971918558194898</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2853341967537021</v>
+        <v>0.5332665109336142</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005126399079153</v>
+        <v>1.017905785829093</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2974814642327214</v>
+        <v>0.555968770317916</v>
       </c>
       <c r="P2" t="n">
-        <v>167.0163766620285</v>
+        <v>164.5149358370862</v>
       </c>
       <c r="Q2" t="n">
-        <v>265.7453184763527</v>
+        <v>263.2438776514104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_1</t>
+          <t>model_22_5_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9897124546639072</v>
+        <v>0.9614234201695586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8350633134475307</v>
+        <v>0.7716172585921712</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9020025303127212</v>
+        <v>-5.762311721393156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998427609803551</v>
+        <v>0.9949015192471217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9877682302238545</v>
+        <v>0.937574667872782</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06879286303224336</v>
+        <v>0.2579617669549786</v>
       </c>
       <c r="H3" t="n">
-        <v>1.102932382439971</v>
+        <v>1.52719644339998</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1473587267130118</v>
+        <v>0.7430208093996299</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001678859627391594</v>
+        <v>0.06536126048984291</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07451879317020171</v>
+        <v>0.4041910349447364</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5298802065717833</v>
+        <v>1.745977978376206</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2622839359019979</v>
+        <v>0.5078993669566626</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004331598036249</v>
+        <v>1.016242770454923</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2734499060559423</v>
+        <v>0.5295216945046385</v>
       </c>
       <c r="P3" t="n">
-        <v>167.3533105488403</v>
+        <v>164.7098877902775</v>
       </c>
       <c r="Q3" t="n">
-        <v>266.0822523631645</v>
+        <v>263.4388296046017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_2</t>
+          <t>model_22_5_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9911861385962368</v>
+        <v>0.9641747193994769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8346336838537883</v>
+        <v>0.7703618224601484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9086838484736395</v>
+        <v>-5.880787928617705</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996816457179432</v>
+        <v>0.9928256518434957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9884515975309639</v>
+        <v>0.9345143277627791</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05893833179106399</v>
+        <v>0.2395638163359471</v>
       </c>
       <c r="H4" t="n">
-        <v>1.105805317511589</v>
+        <v>1.535591550595569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1373120332616476</v>
+        <v>0.756038589563193</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003399106357692528</v>
+        <v>0.09197336646556364</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07035556021620409</v>
+        <v>0.4240061003067295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5023898705545725</v>
+        <v>1.535565301090795</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2427721808425833</v>
+        <v>0.4894525680144575</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003711099538427</v>
+        <v>1.015084328673904</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2531074951887473</v>
+        <v>0.5102895771413256</v>
       </c>
       <c r="P4" t="n">
-        <v>167.6625272111682</v>
+        <v>164.8578708822137</v>
       </c>
       <c r="Q4" t="n">
-        <v>266.3914690254924</v>
+        <v>263.586812696538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_3</t>
+          <t>model_22_5_0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9923321213691347</v>
+        <v>0.9519539275735555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8340472560661771</v>
+        <v>0.7701852983767115</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9131751159632279</v>
+        <v>-5.7053750949803</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999491634686867</v>
+        <v>0.9972431170596489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9888393639065619</v>
+        <v>0.940375917158316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05127513971193096</v>
+        <v>0.3212843075474558</v>
       </c>
       <c r="H5" t="n">
-        <v>1.109726762827596</v>
+        <v>1.536771967954329</v>
       </c>
       <c r="I5" t="n">
-        <v>0.130558517474911</v>
+        <v>0.7367647981441994</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005427876630829339</v>
+        <v>0.03534255648656964</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06799319705287017</v>
+        <v>0.3860535287549286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4779228279574647</v>
+        <v>2.227014179262581</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2264401459810759</v>
+        <v>0.5668194664506996</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003228580476154</v>
+        <v>1.020229925232187</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2360801717912126</v>
+        <v>0.5909501446155568</v>
       </c>
       <c r="P5" t="n">
-        <v>167.9410985005402</v>
+        <v>164.2708577091055</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.6700403148644</v>
+        <v>262.9997995234297</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9932195449297324</v>
+        <v>0.965959974765968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.833362563880109</v>
+        <v>0.768273710068049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9160247510407837</v>
+        <v>-6.030704082003513</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992867325318338</v>
+        <v>0.9902119770569561</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9890114928612026</v>
+        <v>0.9306548370876054</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04534093427600409</v>
+        <v>0.2276258054798759</v>
       </c>
       <c r="H6" t="n">
-        <v>1.114305302628551</v>
+        <v>1.549554767776411</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1262735231993916</v>
+        <v>0.7725108887147403</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007615641197330793</v>
+        <v>0.1254800298892326</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06694454733134872</v>
+        <v>0.4489954992766685</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4560916946776536</v>
+        <v>1.335751354213793</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2129341078268207</v>
+        <v>0.4771014624583286</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002854928450639</v>
+        <v>1.014332642203803</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2219991536313775</v>
+        <v>0.4974126594513592</v>
       </c>
       <c r="P6" t="n">
-        <v>168.1870900562317</v>
+        <v>164.9601044046281</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.9160318705559</v>
+        <v>263.6890462189523</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9939033202921513</v>
+        <v>0.9669535180070097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8326230965256394</v>
+        <v>0.7656134665957766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9176591511669681</v>
+        <v>-6.207334905736857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9990770752424034</v>
+        <v>0.9871234564277547</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9890294699222939</v>
+        <v>0.9260985817924683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04076852527901292</v>
+        <v>0.2209819772521845</v>
       </c>
       <c r="H7" t="n">
-        <v>1.119250124232824</v>
+        <v>1.567343828124792</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1238158768713521</v>
+        <v>0.7919185089224987</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009854176896725292</v>
+        <v>0.1650740994087696</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06683502688403872</v>
+        <v>0.4784963041656342</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4365852140635901</v>
+        <v>1.14734613464648</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2019121721913093</v>
+        <v>0.4700872017532328</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002567023034884</v>
+        <v>1.013914308207575</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2105079913773102</v>
+        <v>0.4900997871465261</v>
       </c>
       <c r="P7" t="n">
-        <v>168.3996898690485</v>
+        <v>165.0193482633699</v>
       </c>
       <c r="Q7" t="n">
-        <v>267.1286316833728</v>
+        <v>263.7482900776941</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9944272339371694</v>
+        <v>0.9673105783642834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8318609180242799</v>
+        <v>0.762583496587497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9184073868708884</v>
+        <v>-6.406451562444345</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9988697422247571</v>
+        <v>0.9836626947774574</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9889401339153514</v>
+        <v>0.920983021977577</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03726511232237708</v>
+        <v>0.2185943129989833</v>
       </c>
       <c r="H8" t="n">
-        <v>1.124346815380925</v>
+        <v>1.587605251521886</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1226907553660441</v>
+        <v>0.8137967992952571</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0120678960711232</v>
+        <v>0.2094402066242634</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06737928266597676</v>
+        <v>0.5116184894299252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4191364270080772</v>
+        <v>0.9721876594777836</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1930417372548669</v>
+        <v>0.4675407073175376</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002346427815929</v>
+        <v>1.013763967004512</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2012599236612918</v>
+        <v>0.4874448831707331</v>
       </c>
       <c r="P8" t="n">
-        <v>168.5793954330019</v>
+        <v>165.0410754382726</v>
       </c>
       <c r="Q8" t="n">
-        <v>267.3083372473261</v>
+        <v>263.7700172525968</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9948257798449633</v>
+        <v>0.9671727933827384</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8310988747638648</v>
+        <v>0.7593408080082023</v>
       </c>
       <c r="D9" t="n">
-        <v>0.918519248126721</v>
+        <v>-6.622452047670071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9986694462080191</v>
+        <v>0.9799498772170956</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9887784190722915</v>
+        <v>0.9154746803384027</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03460003400182349</v>
+        <v>0.2195156818050159</v>
       </c>
       <c r="H9" t="n">
-        <v>1.129442602172207</v>
+        <v>1.609289124982837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1225225496737888</v>
+        <v>0.8375302298106529</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01420648035375328</v>
+        <v>0.2570376081790443</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06836448719182039</v>
+        <v>0.5472838552693849</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4035081512552909</v>
+        <v>0.8111572272015389</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1860108437748281</v>
+        <v>0.4685250065951826</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002178619012647</v>
+        <v>1.013821981733584</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1939297104898517</v>
+        <v>0.4884710861064079</v>
       </c>
       <c r="P9" t="n">
-        <v>168.7278012284146</v>
+        <v>165.0326632114317</v>
       </c>
       <c r="Q9" t="n">
-        <v>267.4567430427388</v>
+        <v>263.7616050257559</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9951262751004113</v>
+        <v>0.9666641195498713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8303531131528713</v>
+        <v>0.7560064453217656</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9181845734662771</v>
+        <v>-6.84917849707259</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9984791212900908</v>
+        <v>0.9761012776589509</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9885703322082724</v>
+        <v>0.9097408801187774</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03259062084498926</v>
+        <v>0.2229171860676256</v>
       </c>
       <c r="H10" t="n">
-        <v>1.134429513498836</v>
+        <v>1.631586023620367</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1230257997269127</v>
+        <v>0.8624421943707039</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01623860203396952</v>
+        <v>0.3063757013157057</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06963220088044111</v>
+        <v>0.5844090184998141</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3894983131606811</v>
+        <v>0.8734060039734381</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1805287258166668</v>
+        <v>0.472141065855985</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002052094694564</v>
+        <v>1.014036160189528</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1882142074206629</v>
+        <v>0.4922410884962173</v>
       </c>
       <c r="P10" t="n">
-        <v>168.8474614722914</v>
+        <v>165.0019098788395</v>
       </c>
       <c r="Q10" t="n">
-        <v>267.5764032866156</v>
+        <v>263.7308516931637</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9953502682280477</v>
+        <v>0.9658891657839203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8296347743438205</v>
+        <v>0.7526713238719512</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9175445837701561</v>
+        <v>-7.080739631654442</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9983004974846228</v>
+        <v>0.9722178787351541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9883348190818354</v>
+        <v>0.903931653246544</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03109277776909097</v>
+        <v>0.2280993054688745</v>
       </c>
       <c r="H11" t="n">
-        <v>1.139233048422605</v>
+        <v>1.653887996112099</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1239881517859076</v>
+        <v>0.8878853784076354</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0181457895512178</v>
+        <v>0.3561599137011227</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07106700175382297</v>
+        <v>0.6220225536097539</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3769294442128999</v>
+        <v>0.9593668860536898</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1763314429394003</v>
+        <v>0.4775974303415738</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001957781798717</v>
+        <v>1.014362456512033</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1838382375217378</v>
+        <v>0.4979297417141892</v>
       </c>
       <c r="P11" t="n">
-        <v>168.9415594256797</v>
+        <v>164.9559483891002</v>
       </c>
       <c r="Q11" t="n">
-        <v>267.6705012400039</v>
+        <v>263.6848902034245</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9955147371673108</v>
+        <v>0.9649327778920965</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8289509206353767</v>
+        <v>0.749401954521326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9167047982353036</v>
+        <v>-7.312156038837434</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9981343340055738</v>
+        <v>0.9683812330655143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9880855744246823</v>
+        <v>0.8981698950083257</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02999297321492946</v>
+        <v>0.2344946757052614</v>
       </c>
       <c r="H12" t="n">
-        <v>1.143805981319826</v>
+        <v>1.675750284013792</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1252509367080364</v>
+        <v>0.9133126602688798</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01991993668818183</v>
+        <v>0.4053447609478217</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07258545831367397</v>
+        <v>0.6593287391925691</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3656463137989536</v>
+        <v>1.037101270546966</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1731847949876936</v>
+        <v>0.4842465030387533</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001888531719027</v>
+        <v>1.014765146150696</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1805576302522677</v>
+        <v>0.5048618792015657</v>
       </c>
       <c r="P12" t="n">
-        <v>169.0135843018485</v>
+        <v>164.9006447924704</v>
       </c>
       <c r="Q12" t="n">
-        <v>267.7425261161727</v>
+        <v>263.6295866067946</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9956330592005727</v>
+        <v>0.9638622697316052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.82830591273821</v>
+        <v>0.7462459955810641</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9157435150809761</v>
+        <v>-7.539411953433648</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9979808988970486</v>
+        <v>0.9646534373624378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9878324913330986</v>
+        <v>0.8925512530542759</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02920175323368436</v>
+        <v>0.2416531687037035</v>
       </c>
       <c r="H13" t="n">
-        <v>1.148119152098168</v>
+        <v>1.696854195979178</v>
       </c>
       <c r="I13" t="n">
-        <v>0.126696417515698</v>
+        <v>0.9382828007416921</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02155818150622588</v>
+        <v>0.4531341785825052</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07412729951096196</v>
+        <v>0.6957082766175871</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3555110037657697</v>
+        <v>1.107106665454588</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1708852048413916</v>
+        <v>0.4915823112192947</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001838711915548</v>
+        <v>1.015215886428798</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1781601417926298</v>
+        <v>0.5125099879235691</v>
       </c>
       <c r="P13" t="n">
-        <v>169.0670530585218</v>
+        <v>164.8405035359906</v>
       </c>
       <c r="Q13" t="n">
-        <v>267.7959948728461</v>
+        <v>263.5694453503148</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9957158056435476</v>
+        <v>0.9627295868432941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8277019326372973</v>
+        <v>0.7432351226723717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9147178597621677</v>
+        <v>-7.759481433657724</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9978399392890942</v>
+        <v>0.9610789974084919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.987582396388284</v>
+        <v>0.8871453357285266</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02864842738849857</v>
+        <v>0.2492274243933648</v>
       </c>
       <c r="H14" t="n">
-        <v>1.152157969814044</v>
+        <v>1.716987916983399</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1282386947021228</v>
+        <v>0.9624633191882095</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02306322392776881</v>
+        <v>0.498957613495595</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0756509362214805</v>
+        <v>0.7307104663419022</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3464034661162337</v>
+        <v>1.170004770421338</v>
       </c>
       <c r="M14" t="n">
-        <v>0.169258463269931</v>
+        <v>0.4992268265962526</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00180387130798</v>
+        <v>1.015692805539666</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1764641464646528</v>
+        <v>0.5204799461464523</v>
       </c>
       <c r="P14" t="n">
-        <v>169.1053134555634</v>
+        <v>164.7787788967825</v>
       </c>
       <c r="Q14" t="n">
-        <v>267.8342552698877</v>
+        <v>263.5077207111067</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9957711826031287</v>
+        <v>0.9615740189160417</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8271396277638231</v>
+        <v>0.740389696631949</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9136675997180818</v>
+        <v>-7.970227958332949</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9977109776570739</v>
+        <v>0.9576875350616791</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9873397613352</v>
+        <v>0.8819996915172603</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02827812140479207</v>
+        <v>0.2569547124438029</v>
       </c>
       <c r="H15" t="n">
-        <v>1.155918105092142</v>
+        <v>1.736015294017687</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1298179699967597</v>
+        <v>0.9856194616131383</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02444016253988974</v>
+        <v>0.542435320804066</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07712912553239049</v>
+        <v>0.7640274418122224</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3382240466345907</v>
+        <v>1.226436221263822</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1681609984651378</v>
+        <v>0.5069070057158442</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00178055469342</v>
+        <v>1.016179360456404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1753199603110543</v>
+        <v>0.5284870863913275</v>
       </c>
       <c r="P15" t="n">
-        <v>169.1313337371244</v>
+        <v>164.7177108515736</v>
       </c>
       <c r="Q15" t="n">
-        <v>267.8602755514486</v>
+        <v>263.4466526658978</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9958057325020563</v>
+        <v>0.9604247931612907</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8266186556268321</v>
+        <v>0.7377206977589933</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9126234098664332</v>
+        <v>-8.170174524534231</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9975933676519804</v>
+        <v>0.9544971295329847</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9871078459680591</v>
+        <v>0.8771447517003617</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02804708607157562</v>
+        <v>0.2646395903575205</v>
       </c>
       <c r="H16" t="n">
-        <v>1.159401848171056</v>
+        <v>1.753862901770752</v>
       </c>
       <c r="I16" t="n">
-        <v>0.131388117547269</v>
+        <v>1.007588939740796</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0256958984874614</v>
+        <v>0.5833355295008442</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07854200801736522</v>
+        <v>0.7954621668239787</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3308633331197951</v>
+        <v>1.277020592704497</v>
       </c>
       <c r="M16" t="n">
-        <v>0.167472642755692</v>
+        <v>0.514431327154092</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001766007367555</v>
+        <v>1.01666324498472</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1746022998739646</v>
+        <v>0.5363317337706942</v>
       </c>
       <c r="P16" t="n">
-        <v>169.1477410715519</v>
+        <v>164.6587728301431</v>
       </c>
       <c r="Q16" t="n">
-        <v>267.8766828858762</v>
+        <v>263.3877146444673</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9958245536528092</v>
+        <v>0.9593029185416928</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8261378735367452</v>
+        <v>0.7352324249621638</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9116061344837711</v>
+        <v>-8.358437930135812</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9974863604282584</v>
+        <v>0.9515164453794136</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9868885335240589</v>
+        <v>0.872596487348115</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02792122894982777</v>
+        <v>0.27214157110453</v>
       </c>
       <c r="H17" t="n">
-        <v>1.162616840221266</v>
+        <v>1.770501993420593</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1329177938295641</v>
+        <v>1.028274710195282</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02683842728312273</v>
+        <v>0.6215471621111111</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07987811055634342</v>
+        <v>0.8249112320206262</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3242445542766364</v>
+        <v>1.322339451599653</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1670964660004148</v>
+        <v>0.5216718998609471</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001758082672501</v>
+        <v>1.017135613245603</v>
       </c>
       <c r="O17" t="n">
-        <v>0.174210108495422</v>
+        <v>0.5438805526477317</v>
       </c>
       <c r="P17" t="n">
-        <v>169.1567359704581</v>
+        <v>164.6028657321759</v>
       </c>
       <c r="Q17" t="n">
-        <v>267.8856777847823</v>
+        <v>263.3318075465002</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9958315979458642</v>
+        <v>0.9582228173159749</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8256957088321484</v>
+        <v>0.732924174488949</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9106285156497751</v>
+        <v>-8.534628449767455</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9973892151081433</v>
+        <v>0.9487470454058875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9866827528935614</v>
+        <v>0.8683599620262513</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02787412372973308</v>
+        <v>0.2793642129743141</v>
       </c>
       <c r="H18" t="n">
-        <v>1.165573597636886</v>
+        <v>1.785937274963497</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1343878385873322</v>
+        <v>1.047633951220964</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02787565936647979</v>
+        <v>0.6570501838628393</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08113177413267897</v>
+        <v>0.8523418518677746</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3182944867526853</v>
+        <v>1.362948242372992</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1669554543275933</v>
+        <v>0.5285491585219999</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001755116654373</v>
+        <v>1.017590392709063</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1740630936637541</v>
+        <v>0.5510505904478736</v>
       </c>
       <c r="P18" t="n">
-        <v>169.1601129708012</v>
+        <v>164.5504778512747</v>
       </c>
       <c r="Q18" t="n">
-        <v>267.8890547851254</v>
+        <v>263.2794196655989</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9958300261480452</v>
+        <v>0.9571944151723538</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8252901276790932</v>
+        <v>0.7307918730867633</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9097001106583167</v>
+        <v>-8.698653978359173</v>
       </c>
       <c r="E19" t="n">
-        <v>0.997301189626676</v>
+        <v>0.9461864121165668</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9864910414857605</v>
+        <v>0.8644332415513168</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02788463434898568</v>
+        <v>0.2862411428440647</v>
       </c>
       <c r="H19" t="n">
-        <v>1.168285720674895</v>
+        <v>1.800195984258258</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1357838805244544</v>
+        <v>1.065656542612435</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02881551785294646</v>
+        <v>0.689876868429171</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08229972472427273</v>
+        <v>0.8777665498007858</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3129389672327971</v>
+        <v>1.399332564629401</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1669869286770245</v>
+        <v>0.5350150865574397</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001755778463981</v>
+        <v>1.018023404137956</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1740959079414015</v>
+        <v>0.5577917864260984</v>
       </c>
       <c r="P19" t="n">
-        <v>169.1593589640952</v>
+        <v>164.5018413332437</v>
       </c>
       <c r="Q19" t="n">
-        <v>267.8883007784195</v>
+        <v>263.230783147568</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9958221992424133</v>
+        <v>0.9562235806482472</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8249189646460373</v>
+        <v>0.728829052924225</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9088257378256378</v>
+        <v>-8.850677234651958</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9972214623070034</v>
+        <v>0.943827510270091</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9863132740950508</v>
+        <v>0.8608080540282674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0279369729029859</v>
+        <v>0.2927331177770475</v>
       </c>
       <c r="H20" t="n">
-        <v>1.170767689585989</v>
+        <v>1.813321371723108</v>
       </c>
       <c r="I20" t="n">
-        <v>0.137098674342164</v>
+        <v>1.082360363375516</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02966677588356007</v>
+        <v>0.7201174058619016</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08338272511286204</v>
+        <v>0.9012388846187085</v>
       </c>
       <c r="L20" t="n">
-        <v>0.308119923229479</v>
+        <v>1.431936070685787</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1671435697326879</v>
+        <v>0.5410481658568371</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001759074003194</v>
+        <v>1.018432176569159</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1742592175310962</v>
+        <v>0.5640817064014669</v>
       </c>
       <c r="P20" t="n">
-        <v>169.1556085475871</v>
+        <v>164.4569878917601</v>
       </c>
       <c r="Q20" t="n">
-        <v>267.8845503619114</v>
+        <v>263.1859297060843</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9958099860283054</v>
+        <v>0.9553135543814996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8245800620138133</v>
+        <v>0.7270275189235315</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9080075819735798</v>
+        <v>-8.991036303009373</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9971493932044175</v>
+        <v>0.941661465299834</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9861491339446613</v>
+        <v>0.8574727961238306</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02801864272196199</v>
+        <v>0.2988184676130743</v>
       </c>
       <c r="H21" t="n">
-        <v>1.173033933048174</v>
+        <v>1.825368237881046</v>
       </c>
       <c r="I21" t="n">
-        <v>0.138328934725384</v>
+        <v>1.09778256112005</v>
       </c>
       <c r="J21" t="n">
-        <v>0.030436266223725</v>
+        <v>0.7478855659071781</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08438270517638907</v>
+        <v>0.922833985489852</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3037900903394454</v>
+        <v>1.461156625928936</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1673877018241244</v>
+        <v>0.5466429068533446</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001764216409134</v>
+        <v>1.018815345523579</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1745137428310883</v>
+        <v>0.5699146271049063</v>
       </c>
       <c r="P21" t="n">
-        <v>169.1497703577249</v>
+        <v>164.4158380433988</v>
       </c>
       <c r="Q21" t="n">
-        <v>267.8787121720491</v>
+        <v>263.1447798577231</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9957948809035968</v>
+        <v>0.9544652951507446</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8242710897222498</v>
+        <v>0.7253780944854427</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9072476107371203</v>
+        <v>-9.120260599259247</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9970842782165802</v>
+        <v>0.9396779560828574</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9859982961041668</v>
+        <v>0.8544126979184565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02811965076044104</v>
+        <v>0.3044907809950075</v>
       </c>
       <c r="H22" t="n">
-        <v>1.175100032184545</v>
+        <v>1.836397946693447</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1394717029427733</v>
+        <v>1.111981306334637</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03113150665746085</v>
+        <v>0.773313662804791</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08530164446675828</v>
+        <v>0.9426474845697137</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2998857641668515</v>
+        <v>1.487358207302627</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1676891492030448</v>
+        <v>0.5518068330448685</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001770576461643</v>
+        <v>1.01917250730495</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1748280234490114</v>
+        <v>0.5752983923252043</v>
       </c>
       <c r="P22" t="n">
-        <v>169.1425732634625</v>
+        <v>164.378228936338</v>
       </c>
       <c r="Q22" t="n">
-        <v>267.8715150777868</v>
+        <v>263.1071707506622</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.995777904601974</v>
+        <v>0.9536785285266339</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8239898495245157</v>
+        <v>0.7238711863157332</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9065436183025285</v>
+        <v>-9.238849541073394</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9970254328547069</v>
+        <v>0.9378657523390117</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9858598565159531</v>
+        <v>0.8516124273849819</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02823317136756114</v>
+        <v>0.3097518930331631</v>
       </c>
       <c r="H23" t="n">
-        <v>1.176980686681785</v>
+        <v>1.846474648562969</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1405302958748978</v>
+        <v>1.1250114734081</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03175980555255277</v>
+        <v>0.7965456659648102</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0861450507137253</v>
+        <v>0.9607786535436131</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2963806684736889</v>
+        <v>1.510852893173996</v>
       </c>
       <c r="M23" t="n">
-        <v>0.168027293519717</v>
+        <v>0.5565535850510381</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001777724378116</v>
+        <v>1.01950377746247</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1751805632692995</v>
+        <v>0.5802472233914077</v>
       </c>
       <c r="P23" t="n">
-        <v>169.1345154053897</v>
+        <v>164.3439672940087</v>
       </c>
       <c r="Q23" t="n">
-        <v>267.8634572197139</v>
+        <v>263.0729091083329</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9957599326828537</v>
+        <v>0.9529515677907597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8237341726730232</v>
+        <v>0.7224969824848317</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9058947653099738</v>
+        <v>-9.347464520574814</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9969723348966369</v>
+        <v>0.9362131945118604</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9857332516289671</v>
+        <v>0.8490548658794728</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02835334967347252</v>
+        <v>0.3146130828213003</v>
       </c>
       <c r="H24" t="n">
-        <v>1.178690398964999</v>
+        <v>1.855663955907834</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1415059756665485</v>
+        <v>1.136945733954942</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03232673873683471</v>
+        <v>0.8177310480129796</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08691635720169159</v>
+        <v>0.977338332068669</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2932210575345188</v>
+        <v>1.531929175141575</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1683845291987139</v>
+        <v>0.5609038088846432</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001785291501956</v>
+        <v>1.019809866193364</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1755530072107311</v>
+        <v>0.584782645259814</v>
       </c>
       <c r="P24" t="n">
-        <v>169.1260202030419</v>
+        <v>164.312823407299</v>
       </c>
       <c r="Q24" t="n">
-        <v>267.8549620173661</v>
+        <v>263.0417652216232</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9957415995795885</v>
+        <v>0.952282170100768</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8235020297410156</v>
+        <v>0.7212457491554077</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9052987547761427</v>
+        <v>-9.446740718104554</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9969244767625615</v>
+        <v>0.9347088881508454</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9856177596940218</v>
+        <v>0.8467232775576575</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0284759432194227</v>
+        <v>0.3190893482565681</v>
       </c>
       <c r="H25" t="n">
-        <v>1.180242739820254</v>
+        <v>1.864030958943091</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1424021962899295</v>
+        <v>1.147853879524349</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03283772570001274</v>
+        <v>0.8370158829833425</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08761996099497112</v>
+        <v>0.9924348812538459</v>
       </c>
       <c r="L25" t="n">
-        <v>0.290380229296976</v>
+        <v>1.550840483072943</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1687481650846097</v>
+        <v>0.5648799414535518</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001793010703331</v>
+        <v>1.020091717852308</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1759321238291196</v>
+        <v>0.5889280500239102</v>
       </c>
       <c r="P25" t="n">
-        <v>169.1173912914452</v>
+        <v>164.2845682536724</v>
       </c>
       <c r="Q25" t="n">
-        <v>267.8463331057694</v>
+        <v>263.0135100679966</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9957232948766489</v>
+        <v>0.9516674880313798</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8232914213193151</v>
+        <v>0.7201080426361646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9047510188708141</v>
+        <v>-9.537293900101012</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9968812626176522</v>
+        <v>0.9333410764495383</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9855122881532117</v>
+        <v>0.8446008007199595</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02859834685226495</v>
+        <v>0.3231997300849171</v>
       </c>
       <c r="H26" t="n">
-        <v>1.181651079305928</v>
+        <v>1.871638807675927</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1432258263881534</v>
+        <v>1.157803568529053</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03329912824108833</v>
+        <v>0.8545508902224525</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08826251821104103</v>
+        <v>1.00617747709502</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2878251501958182</v>
+        <v>1.567811397584315</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1691104575485057</v>
+        <v>0.5685065787525393</v>
       </c>
       <c r="N26" t="n">
-        <v>1.001800717946674</v>
+        <v>1.020350531355209</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1763098398332524</v>
+        <v>0.5927090807808898</v>
       </c>
       <c r="P26" t="n">
-        <v>169.1088127303906</v>
+        <v>164.2589695749377</v>
       </c>
       <c r="Q26" t="n">
-        <v>267.8377545447149</v>
+        <v>262.9879113892619</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_5.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_1</t>
+          <t>model_22_5_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9574737586559033</v>
+        <v>0.990797457417553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7717030286640079</v>
+        <v>0.7684456900271046</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.690218830008952</v>
+        <v>0.9355792437897861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9964073681576034</v>
+        <v>0.9838806464436856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9396771470324808</v>
+        <v>0.9829078173442619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2843731716833104</v>
+        <v>0.06153744462263558</v>
       </c>
       <c r="H2" t="n">
-        <v>1.526622898534673</v>
+        <v>1.54840473699831</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7350994770631171</v>
+        <v>0.2370155750019329</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04605665041736573</v>
+        <v>0.0891312012198533</v>
       </c>
       <c r="K2" t="n">
-        <v>0.390577919907133</v>
+        <v>0.1630733881108931</v>
       </c>
       <c r="L2" t="n">
-        <v>1.971918558194898</v>
+        <v>0.5462339729431503</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5332665109336142</v>
+        <v>0.248067419510575</v>
       </c>
       <c r="N2" t="n">
-        <v>1.017905785829093</v>
+        <v>1.003874754771557</v>
       </c>
       <c r="O2" t="n">
-        <v>0.555968770317916</v>
+        <v>0.2586281631294904</v>
       </c>
       <c r="P2" t="n">
-        <v>164.5149358370862</v>
+        <v>167.5762188675889</v>
       </c>
       <c r="Q2" t="n">
-        <v>263.2438776514104</v>
+        <v>266.3051606819132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_2</t>
+          <t>model_22_5_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9614234201695586</v>
+        <v>0.9906138310716864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7716172585921712</v>
+        <v>0.7684198802766864</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.762311721393156</v>
+        <v>0.9338200753938886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9949015192471217</v>
+        <v>0.9816505869365709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.937574667872782</v>
+        <v>0.9819224127415435</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2579617669549786</v>
+        <v>0.0627653548429668</v>
       </c>
       <c r="H3" t="n">
-        <v>1.52719644339998</v>
+        <v>1.5485773269182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7430208093996299</v>
+        <v>0.2434878726495777</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06536126048984291</v>
+        <v>0.1014622095302345</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4041910349447364</v>
+        <v>0.1724749531691404</v>
       </c>
       <c r="L3" t="n">
-        <v>1.745977978376206</v>
+        <v>0.5543986026085426</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5078993669566626</v>
+        <v>0.2505301475730352</v>
       </c>
       <c r="N3" t="n">
-        <v>1.016242770454923</v>
+        <v>1.003952071127711</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5295216945046385</v>
+        <v>0.2611957346241195</v>
       </c>
       <c r="P3" t="n">
-        <v>164.7098877902775</v>
+        <v>167.5367040644228</v>
       </c>
       <c r="Q3" t="n">
-        <v>263.4388296046017</v>
+        <v>266.265645878747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_3</t>
+          <t>model_22_5_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9641747193994769</v>
+        <v>0.9909408129074204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7703618224601484</v>
+        <v>0.7684143652260397</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.880787928617705</v>
+        <v>0.9375025743578216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9928256518434957</v>
+        <v>0.9861708986590121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9345143277627791</v>
+        <v>0.9839423262734047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2395638163359471</v>
+        <v>0.06057882580180033</v>
       </c>
       <c r="H4" t="n">
-        <v>1.535591550595569</v>
+        <v>1.548614206087269</v>
       </c>
       <c r="I4" t="n">
-        <v>0.756038589563193</v>
+        <v>0.2299392951300513</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09197336646556364</v>
+        <v>0.07646736018334245</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4240061003067295</v>
+        <v>0.1532033276566969</v>
       </c>
       <c r="L4" t="n">
-        <v>1.535565301090795</v>
+        <v>0.5371716206848043</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4894525680144575</v>
+        <v>0.2461276615941417</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015084328673904</v>
+        <v>1.003814394565297</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5102895771413256</v>
+        <v>0.2566058257027022</v>
       </c>
       <c r="P4" t="n">
-        <v>164.8578708822137</v>
+        <v>167.6076197123514</v>
       </c>
       <c r="Q4" t="n">
-        <v>263.586812696538</v>
+        <v>266.3365615266757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_0</t>
+          <t>model_22_5_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9519539275735555</v>
+        <v>0.9904042567812629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7701852983767115</v>
+        <v>0.7683526621335481</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.7053750949803</v>
+        <v>0.9322144987486387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9972431170596489</v>
+        <v>0.9795056764783884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.940375917158316</v>
+        <v>0.9809912785265648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3212843075474558</v>
+        <v>0.06416677908802995</v>
       </c>
       <c r="H5" t="n">
-        <v>1.536771967954329</v>
+        <v>1.549026814950877</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7367647981441994</v>
+        <v>0.2493950785591419</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03534255648656964</v>
+        <v>0.1133223902117322</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3860535287549286</v>
+        <v>0.1813587343854371</v>
       </c>
       <c r="L5" t="n">
-        <v>2.227014179262581</v>
+        <v>0.5617553627501999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5668194664506996</v>
+        <v>0.2533116244628935</v>
       </c>
       <c r="N5" t="n">
-        <v>1.020229925232187</v>
+        <v>1.004040312934205</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5909501446155568</v>
+        <v>0.26409562474363</v>
       </c>
       <c r="P5" t="n">
-        <v>164.2708577091055</v>
+        <v>167.4925393238054</v>
       </c>
       <c r="Q5" t="n">
-        <v>262.9997995234297</v>
+        <v>266.2214811381296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_4</t>
+          <t>model_22_5_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.965959974765968</v>
+        <v>0.9910254815840264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.768273710068049</v>
+        <v>0.7683058323050578</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.030704082003513</v>
+        <v>0.9396023025667493</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9902119770569561</v>
+        <v>0.9884856887193201</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9306548370876054</v>
+        <v>0.985017957444163</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2276258054798759</v>
+        <v>0.06001264597147347</v>
       </c>
       <c r="H6" t="n">
-        <v>1.549554767776411</v>
+        <v>1.549339966229624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7725108887147403</v>
+        <v>0.2222140165387412</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1254800298892326</v>
+        <v>0.06366783829642338</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4489954992766685</v>
+        <v>0.1429409274175823</v>
       </c>
       <c r="L6" t="n">
-        <v>1.335751354213793</v>
+        <v>0.5271174584832277</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4771014624583286</v>
+        <v>0.2449747863994854</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014332642203803</v>
+        <v>1.003778744596199</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4974126594513592</v>
+        <v>0.2554038702242287</v>
       </c>
       <c r="P6" t="n">
-        <v>164.9601044046281</v>
+        <v>167.6263999455538</v>
       </c>
       <c r="Q6" t="n">
-        <v>263.6890462189523</v>
+        <v>266.355341759878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_5</t>
+          <t>model_22_5_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9669535180070097</v>
+        <v>0.9901797214280929</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7656134665957766</v>
+        <v>0.7682564396548029</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.207334905736857</v>
+        <v>0.9307518220548235</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9871234564277547</v>
+        <v>0.9774627870900268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9260985817924683</v>
+        <v>0.9801172597556371</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2209819772521845</v>
+        <v>0.06566824802856845</v>
       </c>
       <c r="H7" t="n">
-        <v>1.567343828124792</v>
+        <v>1.54967025510931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7919185089224987</v>
+        <v>0.2547765297873031</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1650740994087696</v>
+        <v>0.1246184502247987</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4784963041656342</v>
+        <v>0.1896975875979516</v>
       </c>
       <c r="L7" t="n">
-        <v>1.14734613464648</v>
+        <v>0.568377923404682</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4700872017532328</v>
+        <v>0.2562581667548733</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013914308207575</v>
+        <v>1.00413485413554</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4900997871465261</v>
+        <v>0.2671676074411628</v>
       </c>
       <c r="P7" t="n">
-        <v>165.0193482633699</v>
+        <v>167.4462795150978</v>
       </c>
       <c r="Q7" t="n">
-        <v>263.7482900776941</v>
+        <v>266.175221329422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_6</t>
+          <t>model_22_5_13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9673105783642834</v>
+        <v>0.9899484036998563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.762583496587497</v>
+        <v>0.7681407846118653</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.406451562444345</v>
+        <v>0.9294200945380372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9836626947774574</v>
+        <v>0.9755326544602263</v>
       </c>
       <c r="F8" t="n">
-        <v>0.920983021977577</v>
+        <v>0.9793011846145576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2185943129989833</v>
+        <v>0.06721507074240651</v>
       </c>
       <c r="H8" t="n">
-        <v>1.587605251521886</v>
+        <v>1.550443640913976</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8137967992952571</v>
+        <v>0.2596761953874247</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2094402066242634</v>
+        <v>0.1352910270875571</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5116184894299252</v>
+        <v>0.1974836112374909</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9721876594777836</v>
+        <v>0.5743481333255807</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4675407073175376</v>
+        <v>0.2592586946322273</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013763967004512</v>
+        <v>1.004232251073745</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4874448831707331</v>
+        <v>0.2702958740022048</v>
       </c>
       <c r="P8" t="n">
-        <v>165.0410754382726</v>
+        <v>167.399715579194</v>
       </c>
       <c r="Q8" t="n">
-        <v>263.7700172525968</v>
+        <v>266.1286573935183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_7</t>
+          <t>model_22_5_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9671727933827384</v>
+        <v>0.991027645469866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7593408080082023</v>
+        <v>0.7680947140666368</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.622452047670071</v>
+        <v>0.9418877483795159</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9799498772170956</v>
+        <v>0.9907770022198322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9154746803384027</v>
+        <v>0.9861226014054344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2195156818050159</v>
+        <v>0.05999817605690026</v>
       </c>
       <c r="H9" t="n">
-        <v>1.609289124982837</v>
+        <v>1.550751714862055</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8375302298106529</v>
+        <v>0.2138054494042441</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2570376081790443</v>
+        <v>0.050998128933798</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5472838552693849</v>
+        <v>0.132401721451381</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8111572272015389</v>
+        <v>0.5159696084437964</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4685250065951826</v>
+        <v>0.2449452511417608</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013821981733584</v>
+        <v>1.003777833486372</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4884710861064079</v>
+        <v>0.2553730775894363</v>
       </c>
       <c r="P9" t="n">
-        <v>165.0326632114317</v>
+        <v>167.6268822325475</v>
       </c>
       <c r="Q9" t="n">
-        <v>263.7616050257559</v>
+        <v>266.3558240468718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_8</t>
+          <t>model_22_5_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9666641195498713</v>
+        <v>0.9897165439613367</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7560064453217656</v>
+        <v>0.7680130852381852</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.84917849707259</v>
+        <v>0.9282095337072102</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9761012776589509</v>
+        <v>0.9737211697596341</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9097408801187774</v>
+        <v>0.9785428544192198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2229171860676256</v>
+        <v>0.06876551788150259</v>
       </c>
       <c r="H10" t="n">
-        <v>1.631586023620367</v>
+        <v>1.551297567213776</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8624421943707039</v>
+        <v>0.2641300669076073</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3063757013157057</v>
+        <v>0.1453075458512346</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5844090184998141</v>
+        <v>0.2047187009127705</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8734060039734381</v>
+        <v>0.57972179361947</v>
       </c>
       <c r="M10" t="n">
-        <v>0.472141065855985</v>
+        <v>0.2622318018118752</v>
       </c>
       <c r="N10" t="n">
-        <v>1.014036160189528</v>
+        <v>1.004329876226806</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4922410884962173</v>
+        <v>0.2733955525096706</v>
       </c>
       <c r="P10" t="n">
-        <v>165.0019098788395</v>
+        <v>167.3541057065303</v>
       </c>
       <c r="Q10" t="n">
-        <v>263.7308516931637</v>
+        <v>266.0830475208545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_9</t>
+          <t>model_22_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9658891657839203</v>
+        <v>0.9894887210448045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7526713238719512</v>
+        <v>0.767878998391562</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.080739631654442</v>
+        <v>0.9271108433351388</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9722178787351541</v>
+        <v>0.9720302984787361</v>
       </c>
       <c r="F11" t="n">
-        <v>0.903931653246544</v>
+        <v>0.9778410233630465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2280993054688745</v>
+        <v>0.07028897077338205</v>
       </c>
       <c r="H11" t="n">
-        <v>1.653887996112099</v>
+        <v>1.552194206574559</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8878853784076354</v>
+        <v>0.2681723468435308</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3561599137011227</v>
+        <v>0.1546571384293778</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6220225536097539</v>
+        <v>0.2114147426364542</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9593668860536898</v>
+        <v>0.5845594743405499</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4775974303415738</v>
+        <v>0.2651206720974094</v>
       </c>
       <c r="N11" t="n">
-        <v>1.014362456512033</v>
+        <v>1.004425801665346</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4979297417141892</v>
+        <v>0.2764074079840458</v>
       </c>
       <c r="P11" t="n">
-        <v>164.9559483891002</v>
+        <v>167.3102807609536</v>
       </c>
       <c r="Q11" t="n">
-        <v>263.6848902034245</v>
+        <v>266.0392225752779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_10</t>
+          <t>model_22_5_5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9649327778920965</v>
+        <v>0.9909171153417813</v>
       </c>
       <c r="C12" t="n">
-        <v>0.749401954521326</v>
+        <v>0.7677491796303493</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.312156038837434</v>
+        <v>0.9443687835410332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9683812330655143</v>
+        <v>0.992980795568016</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8981698950083257</v>
+        <v>0.9872395817875379</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2344946757052614</v>
+        <v>0.06073729153234683</v>
       </c>
       <c r="H12" t="n">
-        <v>1.675750284013792</v>
+        <v>1.553062305228549</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9133126602688798</v>
+        <v>0.2046772737974852</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4053447609478217</v>
+        <v>0.03881235810386308</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6593287391925691</v>
+        <v>0.1217448159506741</v>
       </c>
       <c r="L12" t="n">
-        <v>1.037101270546966</v>
+        <v>0.5036061441183616</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4842465030387533</v>
+        <v>0.2464493691051913</v>
       </c>
       <c r="N12" t="n">
-        <v>1.014765146150696</v>
+        <v>1.003824372487671</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5048618792015657</v>
+        <v>0.2569412289685236</v>
       </c>
       <c r="P12" t="n">
-        <v>164.9006447924704</v>
+        <v>167.6023948230571</v>
       </c>
       <c r="Q12" t="n">
-        <v>263.6295866067946</v>
+        <v>266.3313366373813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_11</t>
+          <t>model_22_5_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9638622697316052</v>
+        <v>0.9892680775454945</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7462459955810641</v>
+        <v>0.7677427765894574</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.539411953433648</v>
+        <v>0.9261135936307735</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9646534373624378</v>
+        <v>0.9704593818184244</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8925512530542759</v>
+        <v>0.9771935227072582</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416531687037035</v>
+        <v>0.07176441486923747</v>
       </c>
       <c r="H13" t="n">
-        <v>1.696854195979178</v>
+        <v>1.553105122392476</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9382828007416921</v>
+        <v>0.2718414082766093</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4531341785825052</v>
+        <v>0.1633434476204196</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6957082766175871</v>
+        <v>0.2175924279485145</v>
       </c>
       <c r="L13" t="n">
-        <v>1.107106665454588</v>
+        <v>0.5889120822251166</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4915823112192947</v>
+        <v>0.2678888106458302</v>
       </c>
       <c r="N13" t="n">
-        <v>1.015215886428798</v>
+        <v>1.004518704191371</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5125099879235691</v>
+        <v>0.2792933919213097</v>
       </c>
       <c r="P13" t="n">
-        <v>164.8405035359906</v>
+        <v>167.2687330808401</v>
       </c>
       <c r="Q13" t="n">
-        <v>263.5694453503148</v>
+        <v>265.9976748951644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_12</t>
+          <t>model_22_5_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9627295868432941</v>
+        <v>0.9890568987408057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7432351226723717</v>
+        <v>0.7676075189395745</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.759481433657724</v>
+        <v>0.9252098566913018</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9610789974084919</v>
+        <v>0.9690056383752965</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8871453357285266</v>
+        <v>0.9765980068060488</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2492274243933648</v>
+        <v>0.07317656850858008</v>
       </c>
       <c r="H14" t="n">
-        <v>1.716987916983399</v>
+        <v>1.554009590920048</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9624633191882095</v>
+        <v>0.275166419390425</v>
       </c>
       <c r="J14" t="n">
-        <v>0.498957613495595</v>
+        <v>0.1713818530625979</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7307104663419022</v>
+        <v>0.2232741362265115</v>
       </c>
       <c r="L14" t="n">
-        <v>1.170004770421338</v>
+        <v>0.5928343325837875</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4992268265962526</v>
+        <v>0.2705116790613301</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015692805539666</v>
+        <v>1.004607621582819</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5204799461464523</v>
+        <v>0.2820279212753436</v>
       </c>
       <c r="P14" t="n">
-        <v>164.7787788967825</v>
+        <v>167.2297600232007</v>
       </c>
       <c r="Q14" t="n">
-        <v>263.5077207111067</v>
+        <v>265.958701837525</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_13</t>
+          <t>model_22_5_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9615740189160417</v>
+        <v>0.9888566234283899</v>
       </c>
       <c r="C15" t="n">
-        <v>0.740389696631949</v>
+        <v>0.7674755778868632</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.970227958332949</v>
+        <v>0.9243915404522036</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9576875350616791</v>
+        <v>0.9676647725025778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8819996915172603</v>
+        <v>0.9760516706198258</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2569547124438029</v>
+        <v>0.07451581044488816</v>
       </c>
       <c r="H15" t="n">
-        <v>1.736015294017687</v>
+        <v>1.554891881347061</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9856194616131383</v>
+        <v>0.2781771523490756</v>
       </c>
       <c r="J15" t="n">
-        <v>0.542435320804066</v>
+        <v>0.1787961073310831</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7640274418122224</v>
+        <v>0.2284866298400793</v>
       </c>
       <c r="L15" t="n">
-        <v>1.226436221263822</v>
+        <v>0.5963631556716854</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5069070057158442</v>
+        <v>0.2729758422367961</v>
       </c>
       <c r="N15" t="n">
-        <v>1.016179360456404</v>
+        <v>1.004691948030152</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5284870863913275</v>
+        <v>0.2845969889787101</v>
       </c>
       <c r="P15" t="n">
-        <v>164.7177108515736</v>
+        <v>167.193487910751</v>
       </c>
       <c r="Q15" t="n">
-        <v>263.4466526658978</v>
+        <v>265.9224297250752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_14</t>
+          <t>model_22_5_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9604247931612907</v>
+        <v>0.9886680763904947</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7377206977589933</v>
+        <v>0.7673484589487679</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.170174524534231</v>
+        <v>0.9236507209320208</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9544971295329847</v>
+        <v>0.9664316831233914</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8771447517003617</v>
+        <v>0.9755515081209869</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2646395903575205</v>
+        <v>0.07577662535547215</v>
       </c>
       <c r="H16" t="n">
-        <v>1.753862901770752</v>
+        <v>1.555741926271433</v>
       </c>
       <c r="I16" t="n">
-        <v>1.007588939740796</v>
+        <v>0.2809027609087738</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5833355295008442</v>
+        <v>0.1856144165886073</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7954621668239787</v>
+        <v>0.2332585887486905</v>
       </c>
       <c r="L16" t="n">
-        <v>1.277020592704497</v>
+        <v>0.5995410296515913</v>
       </c>
       <c r="M16" t="n">
-        <v>0.514431327154092</v>
+        <v>0.2752755444195364</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01666324498472</v>
+        <v>1.004771336256634</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5363317337706942</v>
+        <v>0.2869945942444094</v>
       </c>
       <c r="P16" t="n">
-        <v>164.6587728301431</v>
+        <v>167.1599308130191</v>
       </c>
       <c r="Q16" t="n">
-        <v>263.3877146444673</v>
+        <v>265.8888726273433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_15</t>
+          <t>model_22_5_4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9593029185416928</v>
+        <v>0.9906555074955591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7352324249621638</v>
+        <v>0.7672293377953319</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.358437930135812</v>
+        <v>0.9470525813453238</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9515164453794136</v>
+        <v>0.9950133312274264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.872596487348115</v>
+        <v>0.9883460376244536</v>
       </c>
       <c r="G17" t="n">
-        <v>0.27214157110453</v>
+        <v>0.0624866644046279</v>
       </c>
       <c r="H17" t="n">
-        <v>1.770501993420593</v>
+        <v>1.556538489972962</v>
       </c>
       <c r="I17" t="n">
-        <v>1.028274710195282</v>
+        <v>0.1948030978766506</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6215471621111111</v>
+        <v>0.02757354854412883</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8249112320206262</v>
+        <v>0.1111883232103897</v>
       </c>
       <c r="L17" t="n">
-        <v>1.322339451599653</v>
+        <v>0.4899141897898875</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5216718998609471</v>
+        <v>0.2499733273863992</v>
       </c>
       <c r="N17" t="n">
-        <v>1.017135613245603</v>
+        <v>1.003934523159765</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5438805526477317</v>
+        <v>0.2606152094493617</v>
       </c>
       <c r="P17" t="n">
-        <v>164.6028657321759</v>
+        <v>167.5456042290645</v>
       </c>
       <c r="Q17" t="n">
-        <v>263.3318075465002</v>
+        <v>266.2745460433887</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_16</t>
+          <t>model_22_5_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9582228173159749</v>
+        <v>0.9884916907153679</v>
       </c>
       <c r="C18" t="n">
-        <v>0.732924174488949</v>
+        <v>0.7672273427814148</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.534628449767455</v>
+        <v>0.9229807708573791</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9487470454058875</v>
+        <v>0.9653005687124036</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8683599620262513</v>
+        <v>0.9750945870272266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2793642129743141</v>
+        <v>0.07695611717722634</v>
       </c>
       <c r="H18" t="n">
-        <v>1.785937274963497</v>
+        <v>1.556551830640212</v>
       </c>
       <c r="I18" t="n">
-        <v>1.047633951220964</v>
+        <v>0.2833676280029388</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6570501838628393</v>
+        <v>0.191868860094435</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8523418518677746</v>
+        <v>0.2376179893214321</v>
       </c>
       <c r="L18" t="n">
-        <v>1.362948242372992</v>
+        <v>0.6024013492043833</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5285491585219999</v>
+        <v>0.2774096558831836</v>
       </c>
       <c r="N18" t="n">
-        <v>1.017590392709063</v>
+        <v>1.004845603909319</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5510505904478736</v>
+        <v>0.2892195592512838</v>
       </c>
       <c r="P18" t="n">
-        <v>164.5504778512747</v>
+        <v>167.1290398527526</v>
       </c>
       <c r="Q18" t="n">
-        <v>263.2794196655989</v>
+        <v>265.8579816670769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_17</t>
+          <t>model_22_5_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9571944151723538</v>
+        <v>0.9883274483566803</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7307918730867633</v>
+        <v>0.7671128569043203</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.698653978359173</v>
+        <v>0.922374507001672</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9461864121165668</v>
+        <v>0.9642652196379031</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8644332415513168</v>
+        <v>0.9746776428061282</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2862411428440647</v>
+        <v>0.07805440658603727</v>
       </c>
       <c r="H19" t="n">
-        <v>1.800195984258258</v>
+        <v>1.557317398227502</v>
       </c>
       <c r="I19" t="n">
-        <v>1.065656542612435</v>
+        <v>0.2855981820171513</v>
       </c>
       <c r="J19" t="n">
-        <v>0.689876868429171</v>
+        <v>0.1975937737126947</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8777665498007858</v>
+        <v>0.241595977864923</v>
       </c>
       <c r="L19" t="n">
-        <v>1.399332564629401</v>
+        <v>0.604975945733738</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5350150865574397</v>
+        <v>0.2793821873098521</v>
       </c>
       <c r="N19" t="n">
-        <v>1.018023404137956</v>
+        <v>1.004914758586661</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5577917864260984</v>
+        <v>0.2912760654244885</v>
       </c>
       <c r="P19" t="n">
-        <v>164.5018413332437</v>
+        <v>167.100698350226</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.230783147568</v>
+        <v>265.8296401645502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_18</t>
+          <t>model_22_5_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9562235806482472</v>
+        <v>0.9881752602899548</v>
       </c>
       <c r="C20" t="n">
-        <v>0.728829052924225</v>
+        <v>0.7670054179302002</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.850677234651958</v>
+        <v>0.9218270076339534</v>
       </c>
       <c r="E20" t="n">
-        <v>0.943827510270091</v>
+        <v>0.9633194183083162</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8608080540282674</v>
+        <v>0.9742980179287253</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2927331177770475</v>
+        <v>0.07907208888899199</v>
       </c>
       <c r="H20" t="n">
-        <v>1.813321371723108</v>
+        <v>1.558035843142154</v>
       </c>
       <c r="I20" t="n">
-        <v>1.082360363375516</v>
+        <v>0.2876125308867853</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7201174058619016</v>
+        <v>0.2028235373211983</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9012388846187085</v>
+        <v>0.2452179093768992</v>
       </c>
       <c r="L20" t="n">
-        <v>1.431936070685787</v>
+        <v>0.6072947280350188</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5410481658568371</v>
+        <v>0.2811975975875185</v>
       </c>
       <c r="N20" t="n">
-        <v>1.018432176569159</v>
+        <v>1.004978837772651</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5640817064014669</v>
+        <v>0.2931687614760926</v>
       </c>
       <c r="P20" t="n">
-        <v>164.4569878917601</v>
+        <v>167.074790650048</v>
       </c>
       <c r="Q20" t="n">
-        <v>263.1859297060843</v>
+        <v>265.8037324643722</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_19</t>
+          <t>model_22_5_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9553135543814996</v>
+        <v>0.9880346900307126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7270275189235315</v>
+        <v>0.7669050969496096</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.991036303009373</v>
+        <v>0.9213323725099407</v>
       </c>
       <c r="E21" t="n">
-        <v>0.941661465299834</v>
+        <v>0.9624566373584716</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8574727961238306</v>
+        <v>0.9739526305701449</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2988184676130743</v>
+        <v>0.08001208285981104</v>
       </c>
       <c r="H21" t="n">
-        <v>1.825368237881046</v>
+        <v>1.558706690001299</v>
       </c>
       <c r="I21" t="n">
-        <v>1.09778256112005</v>
+        <v>0.289432382674173</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7478855659071781</v>
+        <v>0.2075942436761771</v>
       </c>
       <c r="K21" t="n">
-        <v>0.922833985489852</v>
+        <v>0.2485131869847287</v>
       </c>
       <c r="L21" t="n">
-        <v>1.461156625928936</v>
+        <v>0.6093802392109652</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5466429068533446</v>
+        <v>0.2828640713484324</v>
       </c>
       <c r="N21" t="n">
-        <v>1.018815345523579</v>
+        <v>1.005038025250226</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5699146271049063</v>
+        <v>0.2949061804750848</v>
       </c>
       <c r="P21" t="n">
-        <v>164.4158380433988</v>
+        <v>167.0511552399307</v>
       </c>
       <c r="Q21" t="n">
-        <v>263.1447798577231</v>
+        <v>265.780097054255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_20</t>
+          <t>model_22_5_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9544652951507446</v>
+        <v>0.9879052994176981</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7253780944854427</v>
+        <v>0.7668119065970378</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.120260599259247</v>
+        <v>0.9208856612208536</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9396779560828574</v>
+        <v>0.9616710494125809</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8544126979184565</v>
+        <v>0.9736388390471666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3044907809950075</v>
+        <v>0.08087731848482843</v>
       </c>
       <c r="H22" t="n">
-        <v>1.836397946693447</v>
+        <v>1.559329854318049</v>
       </c>
       <c r="I22" t="n">
-        <v>1.111981306334637</v>
+        <v>0.2910759140338074</v>
       </c>
       <c r="J22" t="n">
-        <v>0.773313662804791</v>
+        <v>0.2119381149757587</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9426474845697137</v>
+        <v>0.2515070145047831</v>
       </c>
       <c r="L22" t="n">
-        <v>1.487358207302627</v>
+        <v>0.6112590165170085</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5518068330448685</v>
+        <v>0.2843893782911529</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01917250730495</v>
+        <v>1.005092505508338</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5752983923252043</v>
+        <v>0.2964964228921775</v>
       </c>
       <c r="P22" t="n">
-        <v>164.378228936338</v>
+        <v>167.029643718125</v>
       </c>
       <c r="Q22" t="n">
-        <v>263.1071707506622</v>
+        <v>265.7585855324492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_21</t>
+          <t>model_22_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9536785285266339</v>
+        <v>0.9901944385294785</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7238711863157332</v>
+        <v>0.7664855587420267</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.238849541073394</v>
+        <v>0.9499431607442002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9378657523390117</v>
+        <v>0.996767446523411</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8516124273849819</v>
+        <v>0.989411683254525</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3097518930331631</v>
+        <v>0.06556983470383639</v>
       </c>
       <c r="H23" t="n">
-        <v>1.846474648562969</v>
+        <v>1.561512143927201</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1250114734081</v>
+        <v>0.1841681351935395</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7965456659648102</v>
+        <v>0.01787425118316413</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9607786535436131</v>
+        <v>0.1010211931883518</v>
       </c>
       <c r="L23" t="n">
-        <v>1.510852893173996</v>
+        <v>0.4747525960333712</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5565535850510381</v>
+        <v>0.2560660748788023</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01950377746247</v>
+        <v>1.004128657461272</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5802472233914077</v>
+        <v>0.2669673378162424</v>
       </c>
       <c r="P23" t="n">
-        <v>164.3439672940087</v>
+        <v>167.4492790512425</v>
       </c>
       <c r="Q23" t="n">
-        <v>263.0729091083329</v>
+        <v>266.1782208655667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_22</t>
+          <t>model_22_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9529515677907597</v>
+        <v>0.98947325054338</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7224969824848317</v>
+        <v>0.7654561390111003</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.347464520574814</v>
+        <v>0.9530404591281427</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9362131945118604</v>
+        <v>0.9981078038797162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8490548658794728</v>
+        <v>0.990397291116573</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3146130828213003</v>
+        <v>0.07039242208764276</v>
       </c>
       <c r="H24" t="n">
-        <v>1.855663955907834</v>
+        <v>1.568395878407948</v>
       </c>
       <c r="I24" t="n">
-        <v>1.136945733954942</v>
+        <v>0.1727726160998608</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8177310480129796</v>
+        <v>0.01046280873207666</v>
       </c>
       <c r="K24" t="n">
-        <v>0.977338332068669</v>
+        <v>0.09161768887002279</v>
       </c>
       <c r="L24" t="n">
-        <v>1.531929175141575</v>
+        <v>0.4584463080139857</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5609038088846432</v>
+        <v>0.2653157026782297</v>
       </c>
       <c r="N24" t="n">
-        <v>1.019809866193364</v>
+        <v>1.004432315560682</v>
       </c>
       <c r="O24" t="n">
-        <v>0.584782645259814</v>
+        <v>0.2766107414204606</v>
       </c>
       <c r="P24" t="n">
-        <v>164.312823407299</v>
+        <v>167.3073393248247</v>
       </c>
       <c r="Q24" t="n">
-        <v>263.0417652216232</v>
+        <v>266.036281139149</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_23</t>
+          <t>model_22_5_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.952282170100768</v>
+        <v>0.98841614041792</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7212457491554077</v>
+        <v>0.7640648381271722</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.446740718104554</v>
+        <v>0.956337022076271</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9347088881508454</v>
+        <v>0.998865864265841</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8467232775576575</v>
+        <v>0.9912525796849997</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3190893482565681</v>
+        <v>0.07746132236413748</v>
       </c>
       <c r="H25" t="n">
-        <v>1.864030958943091</v>
+        <v>1.577699513825127</v>
       </c>
       <c r="I25" t="n">
-        <v>1.147853879524349</v>
+        <v>0.1606439667538165</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8370158829833425</v>
+        <v>0.006271149769052068</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9924348812538459</v>
+        <v>0.08345753709332548</v>
       </c>
       <c r="L25" t="n">
-        <v>1.550840483072943</v>
+        <v>0.4420718904683555</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5648799414535518</v>
+        <v>0.2783187423874603</v>
       </c>
       <c r="N25" t="n">
-        <v>1.020091717852308</v>
+        <v>1.004877414560876</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5889280500239102</v>
+        <v>0.2901673474501161</v>
       </c>
       <c r="P25" t="n">
-        <v>164.2845682536724</v>
+        <v>167.1159530669341</v>
       </c>
       <c r="Q25" t="n">
-        <v>263.0135100679966</v>
+        <v>265.8448948812583</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_24</t>
+          <t>model_22_5_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9516674880313798</v>
+        <v>0.9869287798077674</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7201080426361646</v>
+        <v>0.7622178214395016</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.537293900101012</v>
+        <v>0.9598144483871859</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9333410764495383</v>
+        <v>0.9988348822584977</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8446008007199595</v>
+        <v>0.991914091685405</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3231997300849171</v>
+        <v>0.08740730961289392</v>
       </c>
       <c r="H26" t="n">
-        <v>1.871638807675927</v>
+        <v>1.59005052292031</v>
       </c>
       <c r="I26" t="n">
-        <v>1.157803568529053</v>
+        <v>0.147849888492474</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8545508902224525</v>
+        <v>0.006442463309701421</v>
       </c>
       <c r="K26" t="n">
-        <v>1.00617747709502</v>
+        <v>0.07714617210531496</v>
       </c>
       <c r="L26" t="n">
-        <v>1.567811397584315</v>
+        <v>0.4360510941871293</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5685065787525393</v>
+        <v>0.2956472722906368</v>
       </c>
       <c r="N26" t="n">
-        <v>1.020350531355209</v>
+        <v>1.005503671659888</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5927090807808898</v>
+        <v>0.3082335887462728</v>
       </c>
       <c r="P26" t="n">
-        <v>164.2589695749377</v>
+        <v>166.8743527316059</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.9879113892619</v>
+        <v>265.6032945459302</v>
       </c>
     </row>
   </sheetData>
